--- a/output.xlsx
+++ b/output.xlsx
@@ -19,7 +19,7 @@
     <t>Sent</t>
   </si>
   <si>
-    <t>Seen</t>
+    <t>Not seen</t>
   </si>
 </sst>
 </file>
